--- a/xlsx/英国_intext.xlsx
+++ b/xlsx/英国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2461">
   <si>
     <t>英国</t>
   </si>
@@ -29,7 +29,7 @@
     <t>英格蘭</t>
   </si>
   <si>
-    <t>政策_政策_美國_英国</t>
+    <t>体育运动_体育运动_体育_英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B_(%E8%AB%B8%E4%BE%AF%E5%9C%8B)</t>
@@ -2606,10 +2606,10 @@
     <t>巴斯大學</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E5%A4%AB%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>卡迪夫大学</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%9A%84%E5%A4%AB%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>加的夫大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%A8%81%E5%A4%A7%E5%AD%A6</t>
@@ -4376,10 +4376,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -4388,6 +4388,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -4424,10 +4430,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -4520,18 +4526,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -4550,10 +4556,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
@@ -4580,28 +4586,28 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
     <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -7740,7 +7746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1304"/>
+  <dimension ref="A1:I1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8171,7 +8177,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -9882,7 +9888,7 @@
         <v>144</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -10230,7 +10236,7 @@
         <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -10636,7 +10642,7 @@
         <v>190</v>
       </c>
       <c r="G100" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -10665,7 +10671,7 @@
         <v>192</v>
       </c>
       <c r="G101" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -10694,7 +10700,7 @@
         <v>194</v>
       </c>
       <c r="G102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -16059,7 +16065,7 @@
         <v>530</v>
       </c>
       <c r="G287" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -30327,7 +30333,7 @@
         <v>1458</v>
       </c>
       <c r="G779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -30356,7 +30362,7 @@
         <v>1460</v>
       </c>
       <c r="G780" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -30385,7 +30391,7 @@
         <v>1462</v>
       </c>
       <c r="G781" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H781" t="s">
         <v>4</v>
@@ -30414,7 +30420,7 @@
         <v>1464</v>
       </c>
       <c r="G782" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30443,7 +30449,7 @@
         <v>1466</v>
       </c>
       <c r="G783" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H783" t="s">
         <v>4</v>
@@ -30472,7 +30478,7 @@
         <v>1468</v>
       </c>
       <c r="G784" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H784" t="s">
         <v>4</v>
@@ -30501,7 +30507,7 @@
         <v>1470</v>
       </c>
       <c r="G785" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H785" t="s">
         <v>4</v>
@@ -30530,7 +30536,7 @@
         <v>1472</v>
       </c>
       <c r="G786" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30559,7 +30565,7 @@
         <v>1474</v>
       </c>
       <c r="G787" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H787" t="s">
         <v>4</v>
@@ -30588,7 +30594,7 @@
         <v>1476</v>
       </c>
       <c r="G788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30646,7 +30652,7 @@
         <v>1480</v>
       </c>
       <c r="G790" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30675,7 +30681,7 @@
         <v>1482</v>
       </c>
       <c r="G791" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -30704,7 +30710,7 @@
         <v>1484</v>
       </c>
       <c r="G792" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30733,7 +30739,7 @@
         <v>1486</v>
       </c>
       <c r="G793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30762,7 +30768,7 @@
         <v>1488</v>
       </c>
       <c r="G794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30820,7 +30826,7 @@
         <v>1492</v>
       </c>
       <c r="G796" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30849,7 +30855,7 @@
         <v>1494</v>
       </c>
       <c r="G797" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30878,7 +30884,7 @@
         <v>1496</v>
       </c>
       <c r="G798" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H798" t="s">
         <v>4</v>
@@ -30936,7 +30942,7 @@
         <v>1500</v>
       </c>
       <c r="G800" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30965,7 +30971,7 @@
         <v>1502</v>
       </c>
       <c r="G801" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -31023,7 +31029,7 @@
         <v>1506</v>
       </c>
       <c r="G803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H803" t="s">
         <v>4</v>
@@ -31052,7 +31058,7 @@
         <v>1508</v>
       </c>
       <c r="G804" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -31081,7 +31087,7 @@
         <v>1510</v>
       </c>
       <c r="G805" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -31110,7 +31116,7 @@
         <v>1512</v>
       </c>
       <c r="G806" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -31133,10 +31139,10 @@
         <v>806</v>
       </c>
       <c r="E807" t="s">
-        <v>207</v>
+        <v>1513</v>
       </c>
       <c r="F807" t="s">
-        <v>208</v>
+        <v>1514</v>
       </c>
       <c r="G807" t="n">
         <v>1</v>
@@ -31162,10 +31168,10 @@
         <v>807</v>
       </c>
       <c r="E808" t="s">
-        <v>1513</v>
+        <v>207</v>
       </c>
       <c r="F808" t="s">
-        <v>1514</v>
+        <v>208</v>
       </c>
       <c r="G808" t="n">
         <v>1</v>
@@ -31284,7 +31290,7 @@
         <v>1522</v>
       </c>
       <c r="G812" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -31342,7 +31348,7 @@
         <v>1526</v>
       </c>
       <c r="G814" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31400,7 +31406,7 @@
         <v>1530</v>
       </c>
       <c r="G816" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31429,7 +31435,7 @@
         <v>1532</v>
       </c>
       <c r="G817" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H817" t="s">
         <v>4</v>
@@ -31458,7 +31464,7 @@
         <v>1534</v>
       </c>
       <c r="G818" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -31487,7 +31493,7 @@
         <v>1536</v>
       </c>
       <c r="G819" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31545,7 +31551,7 @@
         <v>1540</v>
       </c>
       <c r="G821" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -31574,7 +31580,7 @@
         <v>1542</v>
       </c>
       <c r="G822" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H822" t="s">
         <v>4</v>
@@ -31632,7 +31638,7 @@
         <v>1546</v>
       </c>
       <c r="G824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31655,13 +31661,13 @@
         <v>824</v>
       </c>
       <c r="E825" t="s">
-        <v>1419</v>
+        <v>1547</v>
       </c>
       <c r="F825" t="s">
-        <v>1420</v>
+        <v>1548</v>
       </c>
       <c r="G825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -31684,13 +31690,13 @@
         <v>825</v>
       </c>
       <c r="E826" t="s">
-        <v>1547</v>
+        <v>1419</v>
       </c>
       <c r="F826" t="s">
-        <v>1548</v>
+        <v>1420</v>
       </c>
       <c r="G826" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H826" t="s">
         <v>4</v>
@@ -31777,7 +31783,7 @@
         <v>1554</v>
       </c>
       <c r="G829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H829" t="s">
         <v>4</v>
@@ -31806,7 +31812,7 @@
         <v>1556</v>
       </c>
       <c r="G830" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H830" t="s">
         <v>4</v>
@@ -32096,7 +32102,7 @@
         <v>1576</v>
       </c>
       <c r="G840" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H840" t="s">
         <v>4</v>
@@ -32125,7 +32131,7 @@
         <v>1578</v>
       </c>
       <c r="G841" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -32183,7 +32189,7 @@
         <v>1582</v>
       </c>
       <c r="G843" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H843" t="s">
         <v>4</v>
@@ -32264,10 +32270,10 @@
         <v>845</v>
       </c>
       <c r="E846" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F846" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="G846" t="n">
         <v>1</v>
@@ -32328,7 +32334,7 @@
         <v>1590</v>
       </c>
       <c r="G848" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H848" t="s">
         <v>4</v>
@@ -32357,7 +32363,7 @@
         <v>1592</v>
       </c>
       <c r="G849" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H849" t="s">
         <v>4</v>
@@ -32850,7 +32856,7 @@
         <v>1626</v>
       </c>
       <c r="G866" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H866" t="s">
         <v>4</v>
@@ -32879,7 +32885,7 @@
         <v>1628</v>
       </c>
       <c r="G867" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H867" t="s">
         <v>4</v>
@@ -33018,13 +33024,13 @@
         <v>871</v>
       </c>
       <c r="E872" t="s">
-        <v>1479</v>
+        <v>1637</v>
       </c>
       <c r="F872" t="s">
-        <v>1480</v>
+        <v>1638</v>
       </c>
       <c r="G872" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H872" t="s">
         <v>4</v>
@@ -33047,13 +33053,13 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="F873" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="G873" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H873" t="s">
         <v>4</v>
@@ -33111,7 +33117,7 @@
         <v>1642</v>
       </c>
       <c r="G875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H875" t="s">
         <v>4</v>
@@ -33140,7 +33146,7 @@
         <v>1644</v>
       </c>
       <c r="G876" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H876" t="s">
         <v>4</v>
@@ -33169,7 +33175,7 @@
         <v>1646</v>
       </c>
       <c r="G877" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H877" t="s">
         <v>4</v>
@@ -33198,7 +33204,7 @@
         <v>1648</v>
       </c>
       <c r="G878" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H878" t="s">
         <v>4</v>
@@ -33256,7 +33262,7 @@
         <v>1652</v>
       </c>
       <c r="G880" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H880" t="s">
         <v>4</v>
@@ -33279,13 +33285,13 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>245</v>
+        <v>1653</v>
       </c>
       <c r="F881" t="s">
-        <v>246</v>
+        <v>1654</v>
       </c>
       <c r="G881" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -33308,13 +33314,13 @@
         <v>881</v>
       </c>
       <c r="E882" t="s">
-        <v>1653</v>
+        <v>245</v>
       </c>
       <c r="F882" t="s">
-        <v>1654</v>
+        <v>246</v>
       </c>
       <c r="G882" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H882" t="s">
         <v>4</v>
@@ -33343,7 +33349,7 @@
         <v>1656</v>
       </c>
       <c r="G883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -33372,7 +33378,7 @@
         <v>1658</v>
       </c>
       <c r="G884" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -33598,10 +33604,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1139</v>
+        <v>1673</v>
       </c>
       <c r="F892" t="s">
-        <v>1140</v>
+        <v>1674</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -33627,10 +33633,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1673</v>
+        <v>1139</v>
       </c>
       <c r="F893" t="s">
-        <v>1674</v>
+        <v>1140</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -33749,7 +33755,7 @@
         <v>1682</v>
       </c>
       <c r="G897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H897" t="s">
         <v>4</v>
@@ -33778,7 +33784,7 @@
         <v>1684</v>
       </c>
       <c r="G898" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H898" t="s">
         <v>4</v>
@@ -33807,7 +33813,7 @@
         <v>1686</v>
       </c>
       <c r="G899" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H899" t="s">
         <v>4</v>
@@ -33830,13 +33836,13 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>245</v>
+        <v>1687</v>
       </c>
       <c r="F900" t="s">
-        <v>246</v>
+        <v>1688</v>
       </c>
       <c r="G900" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H900" t="s">
         <v>4</v>
@@ -33859,13 +33865,13 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1687</v>
+        <v>245</v>
       </c>
       <c r="F901" t="s">
-        <v>1688</v>
+        <v>246</v>
       </c>
       <c r="G901" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H901" t="s">
         <v>4</v>
@@ -33894,7 +33900,7 @@
         <v>1690</v>
       </c>
       <c r="G902" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -34033,10 +34039,10 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1655</v>
+        <v>1699</v>
       </c>
       <c r="F907" t="s">
-        <v>1656</v>
+        <v>1700</v>
       </c>
       <c r="G907" t="n">
         <v>1</v>
@@ -34062,13 +34068,13 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1699</v>
+        <v>1657</v>
       </c>
       <c r="F908" t="s">
-        <v>1700</v>
+        <v>1658</v>
       </c>
       <c r="G908" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -34097,7 +34103,7 @@
         <v>1702</v>
       </c>
       <c r="G909" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H909" t="s">
         <v>4</v>
@@ -34126,7 +34132,7 @@
         <v>1704</v>
       </c>
       <c r="G910" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H910" t="s">
         <v>4</v>
@@ -34155,7 +34161,7 @@
         <v>1706</v>
       </c>
       <c r="G911" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -34271,7 +34277,7 @@
         <v>1714</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -34329,7 +34335,7 @@
         <v>1718</v>
       </c>
       <c r="G917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H917" t="s">
         <v>4</v>
@@ -34358,7 +34364,7 @@
         <v>1720</v>
       </c>
       <c r="G918" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H918" t="s">
         <v>4</v>
@@ -34381,13 +34387,13 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1497</v>
+        <v>1721</v>
       </c>
       <c r="F919" t="s">
-        <v>1498</v>
+        <v>1722</v>
       </c>
       <c r="G919" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -34410,13 +34416,13 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1721</v>
+        <v>1499</v>
       </c>
       <c r="F920" t="s">
-        <v>1722</v>
+        <v>1500</v>
       </c>
       <c r="G920" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34445,7 +34451,7 @@
         <v>1724</v>
       </c>
       <c r="G921" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34474,7 +34480,7 @@
         <v>1726</v>
       </c>
       <c r="G922" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H922" t="s">
         <v>4</v>
@@ -34503,7 +34509,7 @@
         <v>1728</v>
       </c>
       <c r="G923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -34561,7 +34567,7 @@
         <v>1732</v>
       </c>
       <c r="G925" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34590,7 +34596,7 @@
         <v>1734</v>
       </c>
       <c r="G926" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H926" t="s">
         <v>4</v>
@@ -34648,7 +34654,7 @@
         <v>1738</v>
       </c>
       <c r="G928" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H928" t="s">
         <v>4</v>
@@ -34677,7 +34683,7 @@
         <v>1740</v>
       </c>
       <c r="G929" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H929" t="s">
         <v>4</v>
@@ -34706,7 +34712,7 @@
         <v>1742</v>
       </c>
       <c r="G930" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H930" t="s">
         <v>4</v>
@@ -34735,7 +34741,7 @@
         <v>1744</v>
       </c>
       <c r="G931" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H931" t="s">
         <v>4</v>
@@ -34822,7 +34828,7 @@
         <v>1750</v>
       </c>
       <c r="G934" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H934" t="s">
         <v>4</v>
@@ -34851,7 +34857,7 @@
         <v>1752</v>
       </c>
       <c r="G935" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H935" t="s">
         <v>4</v>
@@ -34880,7 +34886,7 @@
         <v>1754</v>
       </c>
       <c r="G936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H936" t="s">
         <v>4</v>
@@ -34938,7 +34944,7 @@
         <v>1758</v>
       </c>
       <c r="G938" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H938" t="s">
         <v>4</v>
@@ -34996,7 +35002,7 @@
         <v>1762</v>
       </c>
       <c r="G940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H940" t="s">
         <v>4</v>
@@ -35025,7 +35031,7 @@
         <v>1764</v>
       </c>
       <c r="G941" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H941" t="s">
         <v>4</v>
@@ -35054,7 +35060,7 @@
         <v>1766</v>
       </c>
       <c r="G942" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H942" t="s">
         <v>4</v>
@@ -35112,7 +35118,7 @@
         <v>1770</v>
       </c>
       <c r="G944" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -35170,7 +35176,7 @@
         <v>1774</v>
       </c>
       <c r="G946" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H946" t="s">
         <v>4</v>
@@ -35199,7 +35205,7 @@
         <v>1776</v>
       </c>
       <c r="G947" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -35257,7 +35263,7 @@
         <v>1780</v>
       </c>
       <c r="G949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H949" t="s">
         <v>4</v>
@@ -35286,7 +35292,7 @@
         <v>1782</v>
       </c>
       <c r="G950" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H950" t="s">
         <v>4</v>
@@ -35315,7 +35321,7 @@
         <v>1784</v>
       </c>
       <c r="G951" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H951" t="s">
         <v>4</v>
@@ -35373,7 +35379,7 @@
         <v>1788</v>
       </c>
       <c r="G953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H953" t="s">
         <v>4</v>
@@ -35402,7 +35408,7 @@
         <v>1790</v>
       </c>
       <c r="G954" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H954" t="s">
         <v>4</v>
@@ -35460,7 +35466,7 @@
         <v>1794</v>
       </c>
       <c r="G956" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H956" t="s">
         <v>4</v>
@@ -35489,7 +35495,7 @@
         <v>1796</v>
       </c>
       <c r="G957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H957" t="s">
         <v>4</v>
@@ -35692,7 +35698,7 @@
         <v>1810</v>
       </c>
       <c r="G964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -35721,7 +35727,7 @@
         <v>1812</v>
       </c>
       <c r="G965" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -36011,7 +36017,7 @@
         <v>1832</v>
       </c>
       <c r="G975" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H975" t="s">
         <v>4</v>
@@ -36040,7 +36046,7 @@
         <v>1834</v>
       </c>
       <c r="G976" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H976" t="s">
         <v>4</v>
@@ -36533,7 +36539,7 @@
         <v>1868</v>
       </c>
       <c r="G993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H993" t="s">
         <v>4</v>
@@ -36562,7 +36568,7 @@
         <v>1870</v>
       </c>
       <c r="G994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H994" t="s">
         <v>4</v>
@@ -36620,7 +36626,7 @@
         <v>1874</v>
       </c>
       <c r="G996" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H996" t="s">
         <v>4</v>
@@ -36678,7 +36684,7 @@
         <v>1878</v>
       </c>
       <c r="G998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H998" t="s">
         <v>4</v>
@@ -36707,7 +36713,7 @@
         <v>1880</v>
       </c>
       <c r="G999" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H999" t="s">
         <v>4</v>
@@ -36765,7 +36771,7 @@
         <v>1884</v>
       </c>
       <c r="G1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1001" t="s">
         <v>4</v>
@@ -36794,7 +36800,7 @@
         <v>1886</v>
       </c>
       <c r="G1002" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1002" t="s">
         <v>4</v>
@@ -36968,7 +36974,7 @@
         <v>1898</v>
       </c>
       <c r="G1008" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36997,7 +37003,7 @@
         <v>1900</v>
       </c>
       <c r="G1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1009" t="s">
         <v>4</v>
@@ -37252,13 +37258,13 @@
         <v>1017</v>
       </c>
       <c r="E1018" t="s">
-        <v>551</v>
+        <v>1917</v>
       </c>
       <c r="F1018" t="s">
-        <v>552</v>
+        <v>1918</v>
       </c>
       <c r="G1018" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="H1018" t="s">
         <v>4</v>
@@ -37281,13 +37287,13 @@
         <v>1018</v>
       </c>
       <c r="E1019" t="s">
-        <v>1917</v>
+        <v>551</v>
       </c>
       <c r="F1019" t="s">
-        <v>1918</v>
+        <v>552</v>
       </c>
       <c r="G1019" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="H1019" t="s">
         <v>4</v>
@@ -37513,10 +37519,10 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>257</v>
+        <v>1933</v>
       </c>
       <c r="F1027" t="s">
-        <v>258</v>
+        <v>1934</v>
       </c>
       <c r="G1027" t="n">
         <v>1</v>
@@ -37542,10 +37548,10 @@
         <v>1027</v>
       </c>
       <c r="E1028" t="s">
-        <v>1933</v>
+        <v>257</v>
       </c>
       <c r="F1028" t="s">
-        <v>1934</v>
+        <v>258</v>
       </c>
       <c r="G1028" t="n">
         <v>1</v>
@@ -37577,7 +37583,7 @@
         <v>1936</v>
       </c>
       <c r="G1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1029" t="s">
         <v>4</v>
@@ -37600,13 +37606,13 @@
         <v>1029</v>
       </c>
       <c r="E1030" t="s">
-        <v>1683</v>
+        <v>1937</v>
       </c>
       <c r="F1030" t="s">
-        <v>1684</v>
+        <v>1938</v>
       </c>
       <c r="G1030" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -37629,13 +37635,13 @@
         <v>1030</v>
       </c>
       <c r="E1031" t="s">
-        <v>1937</v>
+        <v>1685</v>
       </c>
       <c r="F1031" t="s">
-        <v>1938</v>
+        <v>1686</v>
       </c>
       <c r="G1031" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1031" t="s">
         <v>4</v>
@@ -37664,7 +37670,7 @@
         <v>1940</v>
       </c>
       <c r="G1032" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1032" t="s">
         <v>4</v>
@@ -37780,7 +37786,7 @@
         <v>1948</v>
       </c>
       <c r="G1036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1036" t="s">
         <v>4</v>
@@ -37809,7 +37815,7 @@
         <v>1950</v>
       </c>
       <c r="G1037" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -37832,13 +37838,13 @@
         <v>1037</v>
       </c>
       <c r="E1038" t="s">
-        <v>1477</v>
+        <v>1951</v>
       </c>
       <c r="F1038" t="s">
-        <v>1478</v>
+        <v>1952</v>
       </c>
       <c r="G1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1038" t="s">
         <v>4</v>
@@ -37861,13 +37867,13 @@
         <v>1038</v>
       </c>
       <c r="E1039" t="s">
-        <v>1951</v>
+        <v>1479</v>
       </c>
       <c r="F1039" t="s">
-        <v>1952</v>
+        <v>1480</v>
       </c>
       <c r="G1039" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1039" t="s">
         <v>4</v>
@@ -37925,7 +37931,7 @@
         <v>1956</v>
       </c>
       <c r="G1041" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -37954,7 +37960,7 @@
         <v>1958</v>
       </c>
       <c r="G1042" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -37983,7 +37989,7 @@
         <v>1960</v>
       </c>
       <c r="G1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1043" t="s">
         <v>4</v>
@@ -38041,7 +38047,7 @@
         <v>1964</v>
       </c>
       <c r="G1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1045" t="s">
         <v>4</v>
@@ -38209,10 +38215,10 @@
         <v>1050</v>
       </c>
       <c r="E1051" t="s">
-        <v>1751</v>
+        <v>1975</v>
       </c>
       <c r="F1051" t="s">
-        <v>1752</v>
+        <v>1976</v>
       </c>
       <c r="G1051" t="n">
         <v>1</v>
@@ -38238,10 +38244,10 @@
         <v>1051</v>
       </c>
       <c r="E1052" t="s">
-        <v>1975</v>
+        <v>1753</v>
       </c>
       <c r="F1052" t="s">
-        <v>1976</v>
+        <v>1754</v>
       </c>
       <c r="G1052" t="n">
         <v>1</v>
@@ -38360,7 +38366,7 @@
         <v>1984</v>
       </c>
       <c r="G1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1056" t="s">
         <v>4</v>
@@ -38389,7 +38395,7 @@
         <v>1986</v>
       </c>
       <c r="G1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1057" t="s">
         <v>4</v>
@@ -38528,10 +38534,10 @@
         <v>1061</v>
       </c>
       <c r="E1062" t="s">
-        <v>1759</v>
+        <v>1995</v>
       </c>
       <c r="F1062" t="s">
-        <v>1760</v>
+        <v>1996</v>
       </c>
       <c r="G1062" t="n">
         <v>1</v>
@@ -38557,10 +38563,10 @@
         <v>1062</v>
       </c>
       <c r="E1063" t="s">
-        <v>1995</v>
+        <v>1761</v>
       </c>
       <c r="F1063" t="s">
-        <v>1996</v>
+        <v>1762</v>
       </c>
       <c r="G1063" t="n">
         <v>1</v>
@@ -38586,10 +38592,10 @@
         <v>1063</v>
       </c>
       <c r="E1064" t="s">
-        <v>1783</v>
+        <v>1997</v>
       </c>
       <c r="F1064" t="s">
-        <v>1784</v>
+        <v>1998</v>
       </c>
       <c r="G1064" t="n">
         <v>1</v>
@@ -38615,10 +38621,10 @@
         <v>1064</v>
       </c>
       <c r="E1065" t="s">
-        <v>1997</v>
+        <v>1785</v>
       </c>
       <c r="F1065" t="s">
-        <v>1998</v>
+        <v>1786</v>
       </c>
       <c r="G1065" t="n">
         <v>1</v>
@@ -38650,7 +38656,7 @@
         <v>2000</v>
       </c>
       <c r="G1066" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -38673,13 +38679,13 @@
         <v>1066</v>
       </c>
       <c r="E1067" t="s">
-        <v>205</v>
+        <v>2001</v>
       </c>
       <c r="F1067" t="s">
-        <v>206</v>
+        <v>2002</v>
       </c>
       <c r="G1067" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38702,13 +38708,13 @@
         <v>1067</v>
       </c>
       <c r="E1068" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1068" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1068" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1068" t="s">
         <v>4</v>
@@ -38731,13 +38737,13 @@
         <v>1068</v>
       </c>
       <c r="E1069" t="s">
-        <v>2001</v>
+        <v>207</v>
       </c>
       <c r="F1069" t="s">
-        <v>2002</v>
+        <v>208</v>
       </c>
       <c r="G1069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1069" t="s">
         <v>4</v>
@@ -38847,10 +38853,10 @@
         <v>1072</v>
       </c>
       <c r="E1073" t="s">
-        <v>1713</v>
+        <v>2009</v>
       </c>
       <c r="F1073" t="s">
-        <v>1714</v>
+        <v>2010</v>
       </c>
       <c r="G1073" t="n">
         <v>1</v>
@@ -38876,10 +38882,10 @@
         <v>1073</v>
       </c>
       <c r="E1074" t="s">
-        <v>2009</v>
+        <v>1715</v>
       </c>
       <c r="F1074" t="s">
-        <v>2010</v>
+        <v>1716</v>
       </c>
       <c r="G1074" t="n">
         <v>1</v>
@@ -39317,7 +39323,7 @@
         <v>2040</v>
       </c>
       <c r="G1089" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1089" t="s">
         <v>4</v>
@@ -39346,7 +39352,7 @@
         <v>2042</v>
       </c>
       <c r="G1090" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1090" t="s">
         <v>4</v>
@@ -39607,7 +39613,7 @@
         <v>2060</v>
       </c>
       <c r="G1099" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1099" t="s">
         <v>4</v>
@@ -39636,7 +39642,7 @@
         <v>2062</v>
       </c>
       <c r="G1100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1100" t="s">
         <v>4</v>
@@ -40622,7 +40628,7 @@
         <v>2130</v>
       </c>
       <c r="G1134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1134" t="s">
         <v>4</v>
@@ -40651,7 +40657,7 @@
         <v>2132</v>
       </c>
       <c r="G1135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1135" t="s">
         <v>4</v>
@@ -40883,7 +40889,7 @@
         <v>2148</v>
       </c>
       <c r="G1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -40912,7 +40918,7 @@
         <v>2150</v>
       </c>
       <c r="G1144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -40970,7 +40976,7 @@
         <v>2154</v>
       </c>
       <c r="G1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1146" t="s">
         <v>4</v>
@@ -40999,7 +41005,7 @@
         <v>2156</v>
       </c>
       <c r="G1147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1147" t="s">
         <v>4</v>
@@ -41028,7 +41034,7 @@
         <v>2158</v>
       </c>
       <c r="G1148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1148" t="s">
         <v>4</v>
@@ -41057,7 +41063,7 @@
         <v>2160</v>
       </c>
       <c r="G1149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1149" t="s">
         <v>4</v>
@@ -41115,7 +41121,7 @@
         <v>2164</v>
       </c>
       <c r="G1151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1151" t="s">
         <v>4</v>
@@ -41144,7 +41150,7 @@
         <v>2166</v>
       </c>
       <c r="G1152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1152" t="s">
         <v>4</v>
@@ -41347,7 +41353,7 @@
         <v>2180</v>
       </c>
       <c r="G1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1159" t="s">
         <v>4</v>
@@ -41405,7 +41411,7 @@
         <v>2184</v>
       </c>
       <c r="G1161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -41579,7 +41585,7 @@
         <v>2196</v>
       </c>
       <c r="G1167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1167" t="s">
         <v>4</v>
@@ -41608,7 +41614,7 @@
         <v>2198</v>
       </c>
       <c r="G1168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1168" t="s">
         <v>4</v>
@@ -41753,7 +41759,7 @@
         <v>2208</v>
       </c>
       <c r="G1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1173" t="s">
         <v>4</v>
@@ -41782,7 +41788,7 @@
         <v>2210</v>
       </c>
       <c r="G1174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -42014,7 +42020,7 @@
         <v>2226</v>
       </c>
       <c r="G1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1182" t="s">
         <v>4</v>
@@ -42043,7 +42049,7 @@
         <v>2228</v>
       </c>
       <c r="G1183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1183" t="s">
         <v>4</v>
@@ -42304,7 +42310,7 @@
         <v>2246</v>
       </c>
       <c r="G1192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1192" t="s">
         <v>4</v>
@@ -42333,7 +42339,7 @@
         <v>2248</v>
       </c>
       <c r="G1193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1193" t="s">
         <v>4</v>
@@ -42681,7 +42687,7 @@
         <v>2272</v>
       </c>
       <c r="G1205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1205" t="s">
         <v>4</v>
@@ -42739,7 +42745,7 @@
         <v>2276</v>
       </c>
       <c r="G1207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1207" t="s">
         <v>4</v>
@@ -42849,10 +42855,10 @@
         <v>1210</v>
       </c>
       <c r="E1211" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="F1211" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="G1211" t="n">
         <v>1</v>
@@ -43000,7 +43006,7 @@
         <v>2292</v>
       </c>
       <c r="G1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1216" t="s">
         <v>4</v>
@@ -43029,7 +43035,7 @@
         <v>2294</v>
       </c>
       <c r="G1217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1217" t="s">
         <v>4</v>
@@ -43058,7 +43064,7 @@
         <v>2296</v>
       </c>
       <c r="G1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1218" t="s">
         <v>4</v>
@@ -43087,7 +43093,7 @@
         <v>2298</v>
       </c>
       <c r="G1219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1219" t="s">
         <v>4</v>
@@ -43638,7 +43644,7 @@
         <v>2336</v>
       </c>
       <c r="G1238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1238" t="s">
         <v>4</v>
@@ -43667,7 +43673,7 @@
         <v>2338</v>
       </c>
       <c r="G1239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1239" t="s">
         <v>4</v>
@@ -43754,7 +43760,7 @@
         <v>2344</v>
       </c>
       <c r="G1242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -43783,7 +43789,7 @@
         <v>2346</v>
       </c>
       <c r="G1243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1243" t="s">
         <v>4</v>
@@ -43899,7 +43905,7 @@
         <v>2354</v>
       </c>
       <c r="G1247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1247" t="s">
         <v>4</v>
@@ -43928,7 +43934,7 @@
         <v>2356</v>
       </c>
       <c r="G1248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1248" t="s">
         <v>4</v>
@@ -43957,7 +43963,7 @@
         <v>2358</v>
       </c>
       <c r="G1249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1249" t="s">
         <v>4</v>
@@ -43980,13 +43986,13 @@
         <v>1249</v>
       </c>
       <c r="E1250" t="s">
-        <v>221</v>
+        <v>2359</v>
       </c>
       <c r="F1250" t="s">
-        <v>222</v>
+        <v>2360</v>
       </c>
       <c r="G1250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1250" t="s">
         <v>4</v>
@@ -44009,13 +44015,13 @@
         <v>1250</v>
       </c>
       <c r="E1251" t="s">
-        <v>2359</v>
+        <v>221</v>
       </c>
       <c r="F1251" t="s">
-        <v>2360</v>
+        <v>222</v>
       </c>
       <c r="G1251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1251" t="s">
         <v>4</v>
@@ -44160,7 +44166,7 @@
         <v>2370</v>
       </c>
       <c r="G1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1256" t="s">
         <v>4</v>
@@ -44189,7 +44195,7 @@
         <v>2372</v>
       </c>
       <c r="G1257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1257" t="s">
         <v>4</v>
@@ -44218,7 +44224,7 @@
         <v>2374</v>
       </c>
       <c r="G1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1258" t="s">
         <v>4</v>
@@ -44305,7 +44311,7 @@
         <v>2380</v>
       </c>
       <c r="G1261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1261" t="s">
         <v>4</v>
@@ -44334,7 +44340,7 @@
         <v>2382</v>
       </c>
       <c r="G1262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1262" t="s">
         <v>4</v>
@@ -44363,7 +44369,7 @@
         <v>2384</v>
       </c>
       <c r="G1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1263" t="s">
         <v>4</v>
@@ -44421,7 +44427,7 @@
         <v>2388</v>
       </c>
       <c r="G1265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1265" t="s">
         <v>4</v>
@@ -44450,7 +44456,7 @@
         <v>2390</v>
       </c>
       <c r="G1266" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1266" t="s">
         <v>4</v>
@@ -44479,7 +44485,7 @@
         <v>2392</v>
       </c>
       <c r="G1267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1267" t="s">
         <v>4</v>
@@ -44653,7 +44659,7 @@
         <v>2404</v>
       </c>
       <c r="G1273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1273" t="s">
         <v>4</v>
@@ -44682,7 +44688,7 @@
         <v>2406</v>
       </c>
       <c r="G1274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1274" t="s">
         <v>4</v>
@@ -44711,7 +44717,7 @@
         <v>2408</v>
       </c>
       <c r="G1275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1275" t="s">
         <v>4</v>
@@ -44734,13 +44740,13 @@
         <v>1275</v>
       </c>
       <c r="E1276" t="s">
-        <v>927</v>
+        <v>2409</v>
       </c>
       <c r="F1276" t="s">
-        <v>928</v>
+        <v>2410</v>
       </c>
       <c r="G1276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1276" t="s">
         <v>4</v>
@@ -44763,13 +44769,13 @@
         <v>1276</v>
       </c>
       <c r="E1277" t="s">
-        <v>2409</v>
+        <v>927</v>
       </c>
       <c r="F1277" t="s">
-        <v>2410</v>
+        <v>928</v>
       </c>
       <c r="G1277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1277" t="s">
         <v>4</v>
@@ -44885,7 +44891,7 @@
         <v>2418</v>
       </c>
       <c r="G1281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1281" t="s">
         <v>4</v>
@@ -44943,7 +44949,7 @@
         <v>2422</v>
       </c>
       <c r="G1283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1283" t="s">
         <v>4</v>
@@ -45053,13 +45059,13 @@
         <v>1286</v>
       </c>
       <c r="E1287" t="s">
-        <v>365</v>
+        <v>2429</v>
       </c>
       <c r="F1287" t="s">
-        <v>366</v>
+        <v>2430</v>
       </c>
       <c r="G1287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1287" t="s">
         <v>4</v>
@@ -45082,13 +45088,13 @@
         <v>1287</v>
       </c>
       <c r="E1288" t="s">
-        <v>2429</v>
+        <v>365</v>
       </c>
       <c r="F1288" t="s">
-        <v>2430</v>
+        <v>366</v>
       </c>
       <c r="G1288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1288" t="s">
         <v>4</v>
@@ -45111,13 +45117,13 @@
         <v>1288</v>
       </c>
       <c r="E1289" t="s">
-        <v>437</v>
+        <v>2431</v>
       </c>
       <c r="F1289" t="s">
-        <v>438</v>
+        <v>2432</v>
       </c>
       <c r="G1289" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1289" t="s">
         <v>4</v>
@@ -45140,13 +45146,13 @@
         <v>1289</v>
       </c>
       <c r="E1290" t="s">
-        <v>1219</v>
+        <v>437</v>
       </c>
       <c r="F1290" t="s">
-        <v>1220</v>
+        <v>438</v>
       </c>
       <c r="G1290" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1290" t="s">
         <v>4</v>
@@ -45169,13 +45175,13 @@
         <v>1290</v>
       </c>
       <c r="E1291" t="s">
-        <v>2431</v>
+        <v>1219</v>
       </c>
       <c r="F1291" t="s">
-        <v>2432</v>
+        <v>1220</v>
       </c>
       <c r="G1291" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1291" t="s">
         <v>4</v>
@@ -45233,7 +45239,7 @@
         <v>2436</v>
       </c>
       <c r="G1293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1293" t="s">
         <v>4</v>
@@ -45262,7 +45268,7 @@
         <v>2438</v>
       </c>
       <c r="G1294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1294" t="s">
         <v>4</v>
@@ -45552,12 +45558,41 @@
         <v>2458</v>
       </c>
       <c r="G1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G1305" t="n">
         <v>2</v>
       </c>
-      <c r="H1304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1304" t="n">
+      <c r="H1305" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1305" t="n">
         <v>3</v>
       </c>
     </row>
